--- a/report_folder/report_4.2.b_ne.xlsx
+++ b/report_folder/report_4.2.b_ne.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>13.3% der Karten</t>
+          <t>38.5% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Log Frame erstellen</t>
+          <t>Revisión de Mapas y Material para Sistema de  Riego por Goteo y Material</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Daten für Bewässerungssysteme zusammenfügen und visualisieren (Handbuch erstellen) 💩</t>
+          <t>NEU: Gewächshäuser</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Recherche zu Materialien für Workshops 💩</t>
+          <t>Log Frame erstellen</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Organisationsarbeit 💩</t>
+          <t>Workshop - Nutrición Escolar ⭐️</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(80.0%)</t>
+          <t>(38.5%)</t>
         </is>
       </c>
     </row>
@@ -4528,11 +4528,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4573,11 +4573,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -4588,55 +4588,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Janneskruse</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>Janneskruse</t>
+          <t>Eva Greven</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
@@ -4663,8 +4663,13 @@
           <t>1.</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Jonas Ullmann</t>
+        </is>
+      </c>
       <c r="C48" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4673,8 +4678,13 @@
           <t>2.</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Leonie Ziller</t>
+        </is>
+      </c>
       <c r="C49" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4683,13 +4693,21 @@
           <t>3.</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Maria Lütticke</t>
+        </is>
+      </c>
       <c r="C50" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Aktivste Helfer</t>
-        </is>
+          <t>Wafic Sabbagh</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4698,11 +4716,21 @@
           <t>4.</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Chantal Bußmann</t>
+        </is>
+      </c>
       <c r="C51" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Micha Landoll</t>
+        </is>
       </c>
       <c r="F51" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4711,8 +4739,13 @@
           <t>5.</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Micha Landoll</t>
+        </is>
+      </c>
       <c r="C52" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="14" t="n">
         <v>0</v>
@@ -4743,11 +4776,11 @@
     <row r="60">
       <c r="A60" s="14" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4755,13 +4788,13 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="B61" s="14" t="n">
@@ -4773,12 +4806,17 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Maria Lütticke</t>
+        </is>
+      </c>
+      <c r="B62" s="14" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="14" t="n">
-        <v>0</v>
       </c>
       <c r="F62" s="14" t="inlineStr">
         <is>
@@ -4791,13 +4829,23 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chantal Bußmann</t>
+        </is>
+      </c>
       <c r="B63" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Micha Landoll</t>
+        </is>
+      </c>
       <c r="B64" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -4819,15 +4867,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -4837,15 +4885,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -4860,11 +4908,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="G72" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -4874,11 +4922,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Eva Greven</t>
         </is>
       </c>
       <c r="G73" s="35" t="n">
@@ -4886,13 +4934,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Micha Landoll</t>
-        </is>
-      </c>
       <c r="G74" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">

--- a/report_folder/report_4.2.b_ne.xlsx
+++ b/report_folder/report_4.2.b_ne.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>38.5% der Karten</t>
+          <t>28.6% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(38.5%)</t>
+          <t>(28.6%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -4610,23 +4610,23 @@
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
@@ -4636,7 +4636,7 @@
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>Eva Greven</t>
+          <t>Janneskruse</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
@@ -4665,11 +4665,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -4680,11 +4680,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="C49" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4695,11 +4695,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="C50" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Eva Greven</t>
         </is>
       </c>
       <c r="C51" s="14" t="n">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="C52" s="14" t="n">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4788,17 +4788,17 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="B61" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="14" t="inlineStr">
         <is>
@@ -4806,17 +4806,17 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="B62" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="14" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Eva Greven</t>
         </is>
       </c>
       <c r="B63" s="14" t="n">
@@ -4841,7 +4841,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="B64" s="14" t="n">
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -4885,15 +4885,15 @@
         </is>
       </c>
       <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Maria Lütticke</t>
+        </is>
+      </c>
+      <c r="G71" s="35" t="n">
         <v>4</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Maria Lütticke</t>
-        </is>
-      </c>
-      <c r="G71" s="35" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -4922,11 +4922,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Eva Greven</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="G73" s="35" t="n">
@@ -4934,8 +4934,13 @@
       </c>
     </row>
     <row r="74">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Eva Greven</t>
+        </is>
+      </c>
       <c r="G74" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">

--- a/report_folder/report_4.2.b_ne.xlsx
+++ b/report_folder/report_4.2.b_ne.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>28.6% der Karten</t>
+          <t>40.0% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Revisión de Mapas y Material para Sistema de  Riego por Goteo y Material</t>
+          <t>Definition unserer Rolle im Projekt 💩</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>NEU: Gewächshäuser</t>
+          <t>Mögliche Blogeinträge/ Social Media Posts ⭐️</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Log Frame erstellen</t>
+          <t>Risikomanagement für ROTARY</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Definition unserer Rolle im Projekt 💩</t>
+          <t>"Controlling"</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Workshop - Nutrición Escolar ⭐️</t>
+          <t>Log Frame ausarbeiten</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(28.6%)</t>
+          <t>(32.0%)</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="C35" s="14" t="n">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -4573,11 +4573,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Lara Eisler</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="F39" s="14" t="n">
@@ -4606,41 +4606,41 @@
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>Janneskruse</t>
+          <t>Lara Eisler</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="C48" s="14" t="n">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="C49" s="14" t="n">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="C50" s="14" t="n">
@@ -4703,11 +4703,8 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Wafic Sabbagh</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
+          <t>Aktivste Helfer</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4718,19 +4715,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Eva Greven</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="C51" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Micha Landoll</t>
-        </is>
-      </c>
       <c r="F51" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4739,13 +4731,8 @@
           <t>5.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Chantal Bußmann</t>
-        </is>
-      </c>
       <c r="C52" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="14" t="n">
         <v>0</v>
@@ -4776,11 +4763,11 @@
     <row r="60">
       <c r="A60" s="14" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4788,17 +4775,17 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="B61" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="14" t="inlineStr">
         <is>
@@ -4806,17 +4793,17 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="B62" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="14" t="inlineStr">
         <is>
@@ -4831,7 +4818,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Eva Greven</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="B63" s="14" t="n">
@@ -4839,13 +4826,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Chantal Bußmann</t>
-        </is>
-      </c>
       <c r="B64" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4867,15 +4849,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Chantal Bußmann</t>
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -4885,15 +4867,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4908,11 +4890,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="G72" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4922,11 +4904,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Chantal Bußmann</t>
+          <t>Lara Eisler</t>
         </is>
       </c>
       <c r="G73" s="35" t="n">
@@ -4936,7 +4918,7 @@
     <row r="74">
       <c r="F74" t="inlineStr">
         <is>
-          <t>Eva Greven</t>
+          <t>Janneskruse</t>
         </is>
       </c>
       <c r="G74" s="35" t="n">
